--- a/src/test/resources/testdata/ApplicationData.xlsx
+++ b/src/test/resources/testdata/ApplicationData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulpatidar/Desktop/Sept2022POMSeries/src/test/resources/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahulpatidar/Desktop/MyLearning/SeleniumTestFramework/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5534678E-A011-DA47-86F7-63A47A735B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9371243-7DE9-F943-936A-7776D8C75F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{CF054D66-9B2D-F548-89DE-AF46867FFFA0}"/>
   </bookViews>
@@ -456,7 +456,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
